--- a/network100/inter100v2.xlsx
+++ b/network100/inter100v2.xlsx
@@ -22,7 +22,7 @@
     <t>interactions</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>Name_new</t>
   </si>
   <si>
     <t>Pathways_new</t>
@@ -412,7 +412,7 @@
     <t>Zanamivir</t>
   </si>
   <si>
-    <t>Nystatin (Fungicidin)</t>
+    <t>Nystatin</t>
   </si>
   <si>
     <t>Carmustine</t>
@@ -424,7 +424,7 @@
     <t>Sodium Phenylbutyrate</t>
   </si>
   <si>
-    <t>Bortezomib (PS-341)</t>
+    <t>Bortezomib</t>
   </si>
   <si>
     <t>Tinidazole</t>
@@ -484,7 +484,7 @@
     <t>Dirithromycin</t>
   </si>
   <si>
-    <t>Mitoxantrone Hydrochloride</t>
+    <t>Mitoxantrone</t>
   </si>
   <si>
     <t>Terconazole</t>
